--- a/branches/master/ValueSet-vs-covid19-dose-number.xlsx
+++ b/branches/master/ValueSet-vs-covid19-dose-number.xlsx
@@ -36,13 +36,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>VSDoseNumber</t>
+    <t>VSVaccineSeries</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Covid19 Vaccination Dose Number</t>
+    <t>Covid19 Vaccination Series</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T11:38:34+00:00</t>
+    <t>2022-08-31T09:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/CodeSystem/cs-covid19-dose-number</t>
+    <t>http://example.com/fhir/example/CodeSystem/cs-covid19-vaccine-series</t>
   </si>
 </sst>
 </file>

--- a/branches/master/ValueSet-vs-covid19-dose-number.xlsx
+++ b/branches/master/ValueSet-vs-covid19-dose-number.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Covid19 Vaccination Series</t>
+    <t>Covid19 Vaccine Series</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:33:23+00:00</t>
+    <t>2022-08-31T09:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
